--- a/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
+++ b/data/trans_dic/MCS12_SP_R3-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09182267256951514</v>
+        <v>0.09194262222508703</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1262862323131049</v>
+        <v>0.1253967816457227</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08246892581596468</v>
+        <v>0.08441718023987195</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05391011558224504</v>
+        <v>0.05404311514881072</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1525035254706449</v>
+        <v>0.1510732815317045</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1480125723566131</v>
+        <v>0.1457665496725795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.09582594340801182</v>
+        <v>0.09867092997551245</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1485754517205007</v>
+        <v>0.1509892526755506</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1302612319784666</v>
+        <v>0.1291037756363437</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1465892361775441</v>
+        <v>0.1438145662542934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.09798371257269077</v>
+        <v>0.09593334281438158</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1097479278732187</v>
+        <v>0.107085910410494</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1523084363660303</v>
+        <v>0.1531951020507529</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1959542594078696</v>
+        <v>0.1928080668955633</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1462540101356101</v>
+        <v>0.1445821224539348</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1390950034936745</v>
+        <v>0.1439803761534323</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2197118934345499</v>
+        <v>0.2235380264196533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.224776911479812</v>
+        <v>0.2227039819052138</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1626555803768748</v>
+        <v>0.1653069178853761</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2660047602218131</v>
+        <v>0.2712828447799968</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1735759856382122</v>
+        <v>0.1748809185250761</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1952830044778643</v>
+        <v>0.1968956260683417</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1425310674856647</v>
+        <v>0.1426330622654534</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.181888380644582</v>
+        <v>0.1806698764655458</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1092877673646342</v>
+        <v>0.1085186053177553</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1490967042229626</v>
+        <v>0.1511781187095555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1267385988983301</v>
+        <v>0.1255110522168637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09345476642385263</v>
+        <v>0.09337944166088594</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1826108647970158</v>
+        <v>0.1842440552145667</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1970381025852604</v>
+        <v>0.19852609427237</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1447466066514038</v>
+        <v>0.1476493567591706</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1673065747343175</v>
+        <v>0.1669494830718592</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1527623637385465</v>
+        <v>0.1504124083050897</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1823515737117342</v>
+        <v>0.1825414763289769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1434436466901939</v>
+        <v>0.1442209827739082</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1397874020952821</v>
+        <v>0.1420817860913829</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1605809047311606</v>
+        <v>0.1605398343871392</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2111179438197658</v>
+        <v>0.2108850229984174</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1854516018703438</v>
+        <v>0.1861896337696862</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1710626059007038</v>
+        <v>0.1746643270703779</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2508187509809948</v>
+        <v>0.2537455170760473</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2672421033149267</v>
+        <v>0.2656563250718728</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2080714124541194</v>
+        <v>0.2116617455465203</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2450754599376161</v>
+        <v>0.244350457026242</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1922793943324539</v>
+        <v>0.1923903314359718</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.228335142043339</v>
+        <v>0.2277908450232749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1857005167303683</v>
+        <v>0.1855392079394175</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1959687351704373</v>
+        <v>0.1987249613585999</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1774195179011566</v>
+        <v>0.1782088490375811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1968150748819158</v>
+        <v>0.1963970447870187</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.146846654190242</v>
+        <v>0.1480573038488226</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.141390319961458</v>
+        <v>0.1424042538886524</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2188010564336417</v>
+        <v>0.2175654045219638</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2958024827767183</v>
+        <v>0.2969832953718761</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.192991168760331</v>
+        <v>0.1939613789479168</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1826246693404973</v>
+        <v>0.1849581051869057</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2082841991379102</v>
+        <v>0.2065163609234208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2567971064158573</v>
+        <v>0.2564206027529445</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1807396943540819</v>
+        <v>0.1780331070531746</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1697793660168778</v>
+        <v>0.1719686218935246</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2448608324252841</v>
+        <v>0.2444729936012623</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2625429577116546</v>
+        <v>0.2628612768757876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2069049287132213</v>
+        <v>0.2092305646012401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2096366418355039</v>
+        <v>0.2038184867181638</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2864442853009776</v>
+        <v>0.2834057217047078</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3675721725457041</v>
+        <v>0.3683596994410138</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2563707875487541</v>
+        <v>0.2580321156465317</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2385264906860828</v>
+        <v>0.237554736432852</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2552966582411694</v>
+        <v>0.2539897743192744</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3063106765520312</v>
+        <v>0.3085935250836856</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2231327750628015</v>
+        <v>0.2225314076687837</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2121035182608189</v>
+        <v>0.2147723043063688</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1379563413675229</v>
+        <v>0.1369482870201771</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1886800912985372</v>
+        <v>0.1895568780502295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1966750920262006</v>
+        <v>0.1976992736478334</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1784267461150924</v>
+        <v>0.1817865196664536</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2681582660881435</v>
+        <v>0.2685971560947613</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3173021595340292</v>
+        <v>0.313679820798741</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2683559173109932</v>
+        <v>0.2666581163006662</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2392789768997303</v>
+        <v>0.2400380315405204</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.214431684750281</v>
+        <v>0.2120767351535554</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2593644552633055</v>
+        <v>0.2616111755121185</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2424506570604925</v>
+        <v>0.2400390422795494</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2194451409679309</v>
+        <v>0.2199693790420892</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2067723557221838</v>
+        <v>0.2051032220079377</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2594227479496339</v>
+        <v>0.2616856323435872</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2684163552668332</v>
+        <v>0.264732790023055</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2422814444329395</v>
+        <v>0.2428488499665969</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.349835733620277</v>
+        <v>0.3469876672128587</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3959421939299492</v>
+        <v>0.3959738841074201</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3416665104046722</v>
+        <v>0.3416124612001702</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2902439300665935</v>
+        <v>0.292088673993205</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2654415392445721</v>
+        <v>0.2665267496365398</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3142208252177321</v>
+        <v>0.3196385690193139</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2915728381539999</v>
+        <v>0.2931111282371577</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2596194656087262</v>
+        <v>0.2600422463756632</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2144150609145217</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2379204165723906</v>
+        <v>0.2379204165723907</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.32827031894574</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2062653692002429</v>
+        <v>0.206086711850974</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2252150358942941</v>
+        <v>0.2239959140515682</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1786613077101549</v>
+        <v>0.1800959211552438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2093969769485776</v>
+        <v>0.2059425555603687</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2822715521379739</v>
+        <v>0.2854638835308109</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3463388823957684</v>
+        <v>0.3518330229811011</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2915291174118021</v>
+        <v>0.2964209594760716</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2885816088395036</v>
+        <v>0.2904890102760883</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2605984544556594</v>
+        <v>0.2606363115618534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3029803517462916</v>
+        <v>0.3018219960654653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2456146931079894</v>
+        <v>0.2464551626248146</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2560269665108488</v>
+        <v>0.254602806670591</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2980019910677004</v>
+        <v>0.2964634827297917</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3104945677652577</v>
+        <v>0.3116375620196595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2591318606332761</v>
+        <v>0.2567259358909007</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2741341584053536</v>
+        <v>0.2731217588331743</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3701125744392487</v>
+        <v>0.3769468776847468</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4435546027927129</v>
+        <v>0.4494010933341991</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3826215846594509</v>
+        <v>0.3818710039665809</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3459002574581403</v>
+        <v>0.3466535928509435</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3213485387676681</v>
+        <v>0.3258491393005933</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3711030728565766</v>
+        <v>0.3684631160115407</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3075483102991106</v>
+        <v>0.3071596008420697</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.298240183381012</v>
+        <v>0.2980650085997628</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2188102428981012</v>
+        <v>0.2193731802340625</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2051857254204093</v>
+        <v>0.2014715960926914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1399339114724868</v>
+        <v>0.1445899739066323</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2123688692516088</v>
+        <v>0.213011044948496</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2627396645125107</v>
+        <v>0.2656163579822046</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3165985780418814</v>
+        <v>0.3172433809650401</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.3011605284239011</v>
+        <v>0.2975825827285706</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2871487524027024</v>
+        <v>0.2917355339919462</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2550992547629505</v>
+        <v>0.2578718334852517</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2784988432845832</v>
+        <v>0.2787463241739921</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2375780848487284</v>
+        <v>0.2376215410932688</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2624989259642053</v>
+        <v>0.2611730528616851</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3177529899702866</v>
+        <v>0.319330116572189</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3088112597807269</v>
+        <v>0.3042705577637508</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2232855792136339</v>
+        <v>0.2279166937502149</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2805538155199149</v>
+        <v>0.2824287210857304</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3525415119994427</v>
+        <v>0.3602967895092895</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4206926904202458</v>
+        <v>0.4219536439127423</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3996347347039911</v>
+        <v>0.4012364674458701</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3543085409623661</v>
+        <v>0.3560988048993194</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3244324816214235</v>
+        <v>0.3242503570517108</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3490569448590586</v>
+        <v>0.3513473636887148</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3037931025898258</v>
+        <v>0.3033432054689181</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3114602101950127</v>
+        <v>0.3109029215091813</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2140834394079933</v>
+        <v>0.213964012302924</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2620514060069598</v>
+        <v>0.2619752686066953</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2337960152945138</v>
+        <v>0.2356829134382054</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2768830400970789</v>
+        <v>0.2773374035018969</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2686439003819429</v>
+        <v>0.2671866771210377</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4130454843166402</v>
+        <v>0.4085897489694497</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3362647885476526</v>
+        <v>0.3314259034598597</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4027616839911844</v>
+        <v>0.4022519189587573</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2600971794291562</v>
+        <v>0.2607310510007538</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3665639000698122</v>
+        <v>0.36812172373323</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3088495180990449</v>
+        <v>0.3118569734958839</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.3611900777483091</v>
+        <v>0.3603765804073508</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3224745932076485</v>
+        <v>0.3317189075505924</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.390107040851517</v>
+        <v>0.3826288529814173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3366498500375194</v>
+        <v>0.3366197502391653</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3699829980421414</v>
+        <v>0.3677759167979622</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3746188090114523</v>
+        <v>0.3738602107505252</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5143935842415844</v>
+        <v>0.5141650499629838</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4456247308199516</v>
+        <v>0.446632030390236</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4702163363255035</v>
+        <v>0.4705049137647819</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3411343272833451</v>
+        <v>0.3382857328635243</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4469879266088543</v>
+        <v>0.448071647532467</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3871137680431129</v>
+        <v>0.3911150122730823</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4170698486913855</v>
+        <v>0.4146332095864499</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1732786090292094</v>
+        <v>0.1724801653234511</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2085679867192891</v>
+        <v>0.206689313518852</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.175776171615337</v>
+        <v>0.1743461693111342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.182749458011709</v>
+        <v>0.1838368712158847</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2512254481176807</v>
+        <v>0.2499129579972557</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3121557966451844</v>
+        <v>0.310159459133678</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2522875846355306</v>
+        <v>0.2521310107500963</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2644302021651369</v>
+        <v>0.2645792947983531</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2174564544668633</v>
+        <v>0.2163032369262539</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2645889654742643</v>
+        <v>0.2653476587535326</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2188406940289223</v>
+        <v>0.2185015646067007</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2287554907899446</v>
+        <v>0.2294603576448223</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.200480537593351</v>
+        <v>0.2010159286557666</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2391548963825768</v>
+        <v>0.2384484213747543</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2028016049469306</v>
+        <v>0.2025525008157279</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2113502484598968</v>
+        <v>0.2094412376526402</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2819415622131851</v>
+        <v>0.2797816737309765</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3457045972580773</v>
+        <v>0.3426132049751353</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.282024611949249</v>
+        <v>0.2828648553389156</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2908677861580445</v>
+        <v>0.2914389901188402</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2373116122914047</v>
+        <v>0.2370823018040929</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2873984251039456</v>
+        <v>0.2872896069623712</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2398217258925491</v>
+        <v>0.2390986908604577</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2479045297472041</v>
+        <v>0.2481668419143679</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>45366</v>
+        <v>45426</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>57352</v>
+        <v>56948</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>34593</v>
+        <v>35410</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>21984</v>
+        <v>22038</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>71294</v>
+        <v>70625</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>63679</v>
+        <v>62713</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>37924</v>
+        <v>39050</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>53638</v>
+        <v>54509</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>125253</v>
+        <v>124140</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>129640</v>
+        <v>127186</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>79878</v>
+        <v>78207</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>84375</v>
+        <v>82329</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>75250</v>
+        <v>75688</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88992</v>
+        <v>87563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>61348</v>
+        <v>60647</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>56722</v>
+        <v>58714</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>102713</v>
+        <v>104502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>96706</v>
+        <v>95814</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64372</v>
+        <v>65421</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>96032</v>
+        <v>97937</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>166903</v>
+        <v>168157</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>172704</v>
+        <v>174130</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>116194</v>
+        <v>116277</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>139837</v>
+        <v>138901</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>80380</v>
+        <v>79814</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>102442</v>
+        <v>103873</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>74839</v>
+        <v>74114</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>44568</v>
+        <v>44532</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>114222</v>
+        <v>115244</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>120243</v>
+        <v>121152</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>81571</v>
+        <v>83207</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>83738</v>
+        <v>83559</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>207907</v>
+        <v>204709</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>236572</v>
+        <v>236819</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>165540</v>
+        <v>166437</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136627</v>
+        <v>138870</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>118105</v>
+        <v>118075</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>145056</v>
+        <v>144896</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>109508</v>
+        <v>109944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>81578</v>
+        <v>83296</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>156886</v>
+        <v>158716</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>163086</v>
+        <v>162118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>117257</v>
+        <v>119281</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>122661</v>
+        <v>122298</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>261689</v>
+        <v>261840</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>296229</v>
+        <v>295523</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>214306</v>
+        <v>214120</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>191539</v>
+        <v>194233</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>113312</v>
+        <v>113816</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>134201</v>
+        <v>133916</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>98255</v>
+        <v>99065</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>87641</v>
+        <v>88269</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>150917</v>
+        <v>150064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>210271</v>
+        <v>211111</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>127642</v>
+        <v>128283</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>113475</v>
+        <v>114925</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>276687</v>
+        <v>274339</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>357644</v>
+        <v>357120</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>240471</v>
+        <v>236870</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>210731</v>
+        <v>213449</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>156385</v>
+        <v>156137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>179018</v>
+        <v>179235</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>138439</v>
+        <v>139996</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>129943</v>
+        <v>126337</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>197573</v>
+        <v>195477</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>261289</v>
+        <v>261848</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>169560</v>
+        <v>170659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>148210</v>
+        <v>147607</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>339139</v>
+        <v>337403</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>426603</v>
+        <v>429782</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>296874</v>
+        <v>296074</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>263264</v>
+        <v>266577</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>71620</v>
+        <v>71096</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>115966</v>
+        <v>116505</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>127062</v>
+        <v>127723</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>124645</v>
+        <v>126992</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>138274</v>
+        <v>138500</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>195521</v>
+        <v>193289</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>174184</v>
+        <v>173082</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>175438</v>
+        <v>175995</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>221892</v>
+        <v>219455</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>319230</v>
+        <v>321995</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>314004</v>
+        <v>310881</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>314196</v>
+        <v>314947</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>107345</v>
+        <v>106479</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>159446</v>
+        <v>160836</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>173410</v>
+        <v>171030</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>169253</v>
+        <v>169649</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>180390</v>
+        <v>178921</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>243979</v>
+        <v>243999</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>221768</v>
+        <v>221733</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>212806</v>
+        <v>214158</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>274676</v>
+        <v>275799</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>386748</v>
+        <v>393416</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>377623</v>
+        <v>379616</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>371717</v>
+        <v>372322</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>79765</v>
+        <v>79696</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>96714</v>
+        <v>96190</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>85385</v>
+        <v>86071</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>126118</v>
+        <v>124037</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>114034</v>
+        <v>115323</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>155091</v>
+        <v>157551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>144846</v>
+        <v>147276</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>175020</v>
+        <v>176177</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>206054</v>
+        <v>206084</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>265783</v>
+        <v>264767</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>239417</v>
+        <v>240236</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>309479</v>
+        <v>307758</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115240</v>
+        <v>114645</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>133335</v>
+        <v>133826</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>123844</v>
+        <v>122694</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>165108</v>
+        <v>164499</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>149520</v>
+        <v>152281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>198624</v>
+        <v>201242</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>190105</v>
+        <v>189732</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>209783</v>
+        <v>210240</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>254089</v>
+        <v>257648</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>325542</v>
+        <v>323227</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>299788</v>
+        <v>299409</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>360505</v>
+        <v>360294</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>64020</v>
+        <v>64185</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>63564</v>
+        <v>62413</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>46784</v>
+        <v>48341</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>85392</v>
+        <v>85650</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>90102</v>
+        <v>91089</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>112075</v>
+        <v>112303</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>113767</v>
+        <v>112415</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>125556</v>
+        <v>127561</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>162120</v>
+        <v>163882</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>184863</v>
+        <v>185027</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>169177</v>
+        <v>169208</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>220326</v>
+        <v>219214</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>92969</v>
+        <v>93431</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>95665</v>
+        <v>94259</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>74651</v>
+        <v>76199</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>112808</v>
+        <v>113562</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>120898</v>
+        <v>123558</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>148924</v>
+        <v>149370</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>150967</v>
+        <v>151572</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>154921</v>
+        <v>155704</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>206182</v>
+        <v>206067</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>231698</v>
+        <v>233218</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>216329</v>
+        <v>216008</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>261422</v>
+        <v>260954</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>44932</v>
+        <v>44907</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>65474</v>
+        <v>65455</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>60085</v>
+        <v>60570</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>85172</v>
+        <v>85311</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>89702</v>
+        <v>89216</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>160666</v>
+        <v>158933</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>134563</v>
+        <v>132626</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>183586</v>
+        <v>183354</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>141439</v>
+        <v>141783</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>234172</v>
+        <v>235167</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>202966</v>
+        <v>204942</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>275743</v>
+        <v>275122</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>67682</v>
+        <v>69622</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>97469</v>
+        <v>95600</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>86518</v>
+        <v>86511</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>113810</v>
+        <v>113131</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>125088</v>
+        <v>124835</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>200088</v>
+        <v>199999</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>178325</v>
+        <v>178728</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>214334</v>
+        <v>214465</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>185506</v>
+        <v>183957</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>285549</v>
+        <v>286242</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>254398</v>
+        <v>257028</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>318403</v>
+        <v>316543</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>567755</v>
+        <v>565139</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>714716</v>
+        <v>708279</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>596646</v>
+        <v>591792</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>642383</v>
+        <v>646206</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>848940</v>
+        <v>844505</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1110747</v>
+        <v>1103643</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>894244</v>
+        <v>893689</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>982524</v>
+        <v>983078</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1447334</v>
+        <v>1439658</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1848177</v>
+        <v>1853477</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1518512</v>
+        <v>1516159</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1654069</v>
+        <v>1659166</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>656883</v>
+        <v>658637</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>819531</v>
+        <v>817110</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>688380</v>
+        <v>687534</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>742918</v>
+        <v>736208</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>952736</v>
+        <v>945437</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1230124</v>
+        <v>1219124</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>999648</v>
+        <v>1002626</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1080756</v>
+        <v>1082879</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1579485</v>
+        <v>1577958</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2007503</v>
+        <v>2006743</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1664097</v>
+        <v>1659080</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1792531</v>
+        <v>1794427</v>
       </c>
     </row>
     <row r="36">
